--- a/data/scheduling_DNN/predict/0.1/result14.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result14.xlsx
@@ -570,10 +570,10 @@
         <v>1.345715045928955</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.9572941064834595</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4742526412010193</v>
+        <v>0.1508708298206329</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.987407922744751</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.8978487253189087</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06278332322835922</v>
+        <v>0.008020849898457527</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8763220310211182</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.5040841698646545</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1051453948020935</v>
+        <v>0.138561025261879</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8639001846313477</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.5345253944396973</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0588100403547287</v>
+        <v>0.1084877550601959</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8687620162963867</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4762656688690186</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03414400294423103</v>
+        <v>0.1540533900260925</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9155158996582031</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.5330519676208496</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2088088691234589</v>
+        <v>0.1462786644697189</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8634848594665527</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.512499213218689</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00265924958512187</v>
+        <v>0.1231909245252609</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8695731163024902</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.4763691425323486</v>
       </c>
       <c r="W9" t="n">
-        <v>0.09053599089384079</v>
+        <v>0.1546093672513962</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8628039360046387</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.9297608137130737</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05954167991876602</v>
+        <v>0.004483223427087069</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9171528816223145</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4954283833503723</v>
       </c>
       <c r="W11" t="n">
-        <v>0.009688824415206909</v>
+        <v>0.1778515577316284</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8765158653259277</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.892733633518219</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1604450643062592</v>
+        <v>0.000263016001554206</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.868718147277832</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.5827193856239319</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1872250884771347</v>
+        <v>0.08179529011249542</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8583629131317139</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.4681620001792908</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1632653772830963</v>
+        <v>0.1522567570209503</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9310882091522217</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.4817184805870056</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1430261731147766</v>
+        <v>0.2019331455230713</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8773579597473145</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.572331964969635</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1795769780874252</v>
+        <v>0.09304086118936539</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8647699356079102</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.8642495274543762</v>
       </c>
       <c r="W17" t="n">
-        <v>0.08614669740200043</v>
+        <v>2.708246427118866e-07</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8744280338287354</v>
       </c>
       <c r="V18" t="n">
-        <v>0.473930835723877</v>
+        <v>0.9925628304481506</v>
       </c>
       <c r="W18" t="n">
-        <v>0.160398006439209</v>
+        <v>0.01395583059638739</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9127380847930908</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.4798740744590759</v>
       </c>
       <c r="W19" t="n">
-        <v>0.08285317569971085</v>
+        <v>0.1873712539672852</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8755068778991699</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.5073503851890564</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1395512223243713</v>
+        <v>0.1355392038822174</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8596181869506836</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.9239747524261475</v>
       </c>
       <c r="W21" t="n">
-        <v>0.05546658486127853</v>
+        <v>0.004141767509281635</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5362558364868164</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.4807639122009277</v>
       </c>
       <c r="W22" t="n">
-        <v>0.007764984387904406</v>
+        <v>0.003079353598877788</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5232980251312256</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.474738597869873</v>
       </c>
       <c r="W23" t="n">
-        <v>0.007616790011525154</v>
+        <v>0.002358017954975367</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5704472064971924</v>
       </c>
       <c r="V24" t="n">
-        <v>0.624763011932373</v>
+        <v>0.9356080889701843</v>
       </c>
       <c r="W24" t="n">
-        <v>0.002950206631794572</v>
+        <v>0.1333424746990204</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5298290252685547</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.5503758788108826</v>
       </c>
       <c r="W25" t="n">
-        <v>0.002139215590432286</v>
+        <v>0.0004221731796860695</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5187051296234131</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.5349181294441223</v>
       </c>
       <c r="W26" t="n">
-        <v>0.001023637945763767</v>
+        <v>0.0002628613729029894</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5142600536346436</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.5505620837211609</v>
       </c>
       <c r="W27" t="n">
-        <v>0.003676310647279024</v>
+        <v>0.001317837391979992</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5183601379394531</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.4680996537208557</v>
       </c>
       <c r="W28" t="n">
-        <v>0.00672212615609169</v>
+        <v>0.002526116324588656</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.6102530956268311</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.492388129234314</v>
       </c>
       <c r="W29" t="n">
-        <v>0.001484569511376321</v>
+        <v>0.01389215048402548</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5426290035247803</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.5121567249298096</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0232657864689827</v>
+        <v>0.0009285597479902208</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5323190689086914</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.5058501362800598</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0004346455680206418</v>
+        <v>0.0007006044033914804</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.527468204498291</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.4809345602989197</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0100204711779952</v>
+        <v>0.00216537993401289</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5373749732971191</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.5009578466415405</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02528008446097374</v>
+        <v>0.00132620707154274</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5325329303741455</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.5071067214012146</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02268687263131142</v>
+        <v>0.0006464921170845628</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.515254020690918</v>
       </c>
       <c r="V35" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.5068442821502686</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0880419984459877</v>
+        <v>7.072370499372482e-05</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5134789943695068</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.552470862865448</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0123387249186635</v>
+        <v>0.001520365825854242</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5142660140991211</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.4802480340003967</v>
       </c>
       <c r="W37" t="n">
-        <v>0.003267485881224275</v>
+        <v>0.001157223014160991</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5167889595031738</v>
       </c>
       <c r="V38" t="n">
-        <v>0.458252340555191</v>
+        <v>0.481654942035675</v>
       </c>
       <c r="W38" t="n">
-        <v>0.003426535753533244</v>
+        <v>0.001234399154782295</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5109829902648926</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.8924936056137085</v>
       </c>
       <c r="W39" t="n">
-        <v>0.002740992000326514</v>
+        <v>0.1455503553152084</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5651049613952637</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.5191344022750854</v>
       </c>
       <c r="W40" t="n">
-        <v>0.008313324302434921</v>
+        <v>0.002113292226567864</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5218288898468018</v>
       </c>
       <c r="V41" t="n">
-        <v>0.551541268825531</v>
+        <v>0.930773913860321</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0008828254649415612</v>
+        <v>0.1672360301017761</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3943610191345215</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.5344162583351135</v>
       </c>
       <c r="W42" t="n">
-        <v>0.03047101013362408</v>
+        <v>0.01961546950042248</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4247729778289795</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.4814658761024475</v>
       </c>
       <c r="W43" t="n">
-        <v>0.001568250823765993</v>
+        <v>0.003214084776118398</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3884561061859131</v>
       </c>
       <c r="V44" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.4895714521408081</v>
       </c>
       <c r="W44" t="n">
-        <v>0.04679600894451141</v>
+        <v>0.01022431347519159</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3862631320953369</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.550356924533844</v>
       </c>
       <c r="W45" t="n">
-        <v>0.02927795052528381</v>
+        <v>0.02692677266895771</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.435978889465332</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.5504195690155029</v>
       </c>
       <c r="W46" t="n">
-        <v>3.894814290106297e-05</v>
+        <v>0.01309666875749826</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3998401165008545</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.5639021992683411</v>
       </c>
       <c r="W47" t="n">
-        <v>0.04705201834440231</v>
+        <v>0.02691636793315411</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3892931938171387</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.9976856708526611</v>
       </c>
       <c r="W48" t="n">
-        <v>0.002157667884603143</v>
+        <v>0.3701414167881012</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.400209903717041</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.480634331703186</v>
       </c>
       <c r="W49" t="n">
-        <v>0.001263251528143883</v>
+        <v>0.006468088831752539</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3860089778900146</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.4942221641540527</v>
       </c>
       <c r="W50" t="n">
-        <v>0.002501870039850473</v>
+        <v>0.01171009335666895</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.388275146484375</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.5216083526611328</v>
       </c>
       <c r="W51" t="n">
-        <v>0.004295849241316319</v>
+        <v>0.01777774468064308</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4066839218139648</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.8961184024810791</v>
       </c>
       <c r="W52" t="n">
-        <v>0.06247973442077637</v>
+        <v>0.2395461052656174</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3861160278320312</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.47965407371521</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0102408155798912</v>
+        <v>0.00874936580657959</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3782820701599121</v>
       </c>
       <c r="V54" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.4853355884552002</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1355697959661484</v>
+        <v>0.01146045606583357</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3865640163421631</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.476162314414978</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01442289818078279</v>
+        <v>0.008027855306863785</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3872730731964111</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.8670259118080139</v>
       </c>
       <c r="W56" t="n">
-        <v>0.03555110096931458</v>
+        <v>0.2301627844572067</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3972070217132568</v>
       </c>
       <c r="V57" t="n">
-        <v>0.436014860868454</v>
+        <v>0.9130034446716309</v>
       </c>
       <c r="W57" t="n">
-        <v>0.001506048371084034</v>
+        <v>0.2660459578037262</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3849449157714844</v>
       </c>
       <c r="V58" t="n">
-        <v>0.569115161895752</v>
+        <v>0.5072720646858215</v>
       </c>
       <c r="W58" t="n">
-        <v>0.03391867876052856</v>
+        <v>0.01496393140405416</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3890719413757324</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.4759520292282104</v>
       </c>
       <c r="W59" t="n">
-        <v>0.00707695260643959</v>
+        <v>0.007548149675130844</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3862390518188477</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.9059694409370422</v>
       </c>
       <c r="W60" t="n">
-        <v>0.002477459143847227</v>
+        <v>0.2701196670532227</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3881721496582031</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.5294718742370605</v>
       </c>
       <c r="W61" t="n">
-        <v>0.004833245184272528</v>
+        <v>0.01996561139822006</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8955211639404297</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.9351608157157898</v>
       </c>
       <c r="W62" t="n">
-        <v>0.04303957149386406</v>
+        <v>0.001571301952935755</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8631269931793213</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.4796649217605591</v>
       </c>
       <c r="W63" t="n">
-        <v>0.164176732301712</v>
+        <v>0.1470431536436081</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8688340187072754</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.9818325638771057</v>
       </c>
       <c r="W64" t="n">
-        <v>0.09172321856021881</v>
+        <v>0.01276867091655731</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8604331016540527</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.9117951989173889</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1237066090106964</v>
+        <v>0.002638065023347735</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8587489128112793</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.5198362469673157</v>
       </c>
       <c r="W66" t="n">
-        <v>0.160809651017189</v>
+        <v>0.1148617938160896</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8572161197662354</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.8992693424224854</v>
       </c>
       <c r="W67" t="n">
-        <v>0.0386681854724884</v>
+        <v>0.001768473535776138</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9626810550689697</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.888876736164093</v>
       </c>
       <c r="W68" t="n">
-        <v>0.118070974946022</v>
+        <v>0.005447077564895153</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8611769676208496</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.4802505373954773</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1294692307710648</v>
+        <v>0.1451049447059631</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.862170934677124</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.4945954084396362</v>
       </c>
       <c r="W70" t="n">
-        <v>0.09537767618894577</v>
+        <v>0.1351117640733719</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8902289867401123</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.5328332185745239</v>
       </c>
       <c r="W71" t="n">
-        <v>0.07060617208480835</v>
+        <v>0.1277317404747009</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8750150203704834</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.9501523375511169</v>
       </c>
       <c r="W72" t="n">
-        <v>0.06306495517492294</v>
+        <v>0.005645616445690393</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8627960681915283</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.899944543838501</v>
       </c>
       <c r="W73" t="n">
-        <v>0.06014685332775116</v>
+        <v>0.001380009227432311</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8447420597076416</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.5081267952919006</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1668696999549866</v>
+        <v>0.1133098378777504</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8534009456634521</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.8997910022735596</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1432514935731888</v>
+        <v>0.002152037341147661</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8705079555511475</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6259042024612427</v>
+        <v>1.119099259376526</v>
       </c>
       <c r="W76" t="n">
-        <v>0.05983099713921547</v>
+        <v>0.06179763749241829</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8589661121368408</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.4712969660758972</v>
       </c>
       <c r="W77" t="n">
-        <v>0.09452751278877258</v>
+        <v>0.1502873599529266</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8608081340789795</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.8977880477905273</v>
       </c>
       <c r="W78" t="n">
-        <v>0.05530240759253502</v>
+        <v>0.00136751402169466</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8817679882049561</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.5042498111724854</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1798677146434784</v>
+        <v>0.1425199806690216</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8577489852905273</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.5080663561820984</v>
       </c>
       <c r="W80" t="n">
-        <v>0.05722006037831306</v>
+        <v>0.1222779378294945</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8687119483947754</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.4909530878067017</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1711056083440781</v>
+        <v>0.1427017599344254</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5876569747924805</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.5348806977272034</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01479984167963266</v>
+        <v>0.002785335527732968</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5335731506347656</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.4900365471839905</v>
       </c>
       <c r="W83" t="n">
-        <v>0.00949478056281805</v>
+        <v>0.00189543585292995</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5711660385131836</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.4777171611785889</v>
       </c>
       <c r="W84" t="n">
-        <v>0.002764982171356678</v>
+        <v>0.008732692338526249</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5159878730773926</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.8921272158622742</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0002188868966186419</v>
+        <v>0.1414808034896851</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5124921798706055</v>
       </c>
       <c r="V86" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.4763035774230957</v>
       </c>
       <c r="W86" t="n">
-        <v>0.05827551707625389</v>
+        <v>0.001309614977799356</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5125231742858887</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.4913819432258606</v>
       </c>
       <c r="W87" t="n">
-        <v>7.802488835295662e-05</v>
+        <v>0.0004469516570679843</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5096480846405029</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.870442807674408</v>
       </c>
       <c r="W88" t="n">
-        <v>3.012183333339635e-05</v>
+        <v>0.1301728338003159</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5149860382080078</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.4799436330795288</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01128187961876392</v>
+        <v>0.001227970118634403</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.553192138671875</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.8750881552696228</v>
       </c>
       <c r="W90" t="n">
-        <v>0.006162624806165695</v>
+        <v>0.1036170423030853</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5147140026092529</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.4901620149612427</v>
       </c>
       <c r="W91" t="n">
-        <v>0.01233305782079697</v>
+        <v>0.0006028001080267131</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5151410102844238</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.5351925492286682</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01120457146316767</v>
+        <v>0.0004020642081741244</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5155580043792725</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.9372052550315857</v>
       </c>
       <c r="W93" t="n">
-        <v>0.001444307155907154</v>
+        <v>0.1777864098548889</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.511322021484375</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.5690635442733765</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02118168398737907</v>
+        <v>0.003334083361551166</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5636990070343018</v>
       </c>
       <c r="V95" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4866132140159607</v>
       </c>
       <c r="W95" t="n">
-        <v>0.02821926772594452</v>
+        <v>0.005942219402641058</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.515470027923584</v>
       </c>
       <c r="V96" t="n">
-        <v>0.812067985534668</v>
+        <v>0.4784412980079651</v>
       </c>
       <c r="W96" t="n">
-        <v>0.08797034621238708</v>
+        <v>0.001371126854792237</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5204191207885742</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.4756833910942078</v>
       </c>
       <c r="W97" t="n">
-        <v>0.02331651002168655</v>
+        <v>0.002001285552978516</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5164110660552979</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.9282683730125427</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01579761318862438</v>
+        <v>0.1696264445781708</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5523090362548828</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.4919807314872742</v>
       </c>
       <c r="W99" t="n">
-        <v>0.004294892307370901</v>
+        <v>0.003639504313468933</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5100729465484619</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.4789559245109558</v>
       </c>
       <c r="W100" t="n">
-        <v>0.00272280746139586</v>
+        <v>0.0009682690724730492</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5222830772399902</v>
       </c>
       <c r="V101" t="n">
-        <v>0.505409836769104</v>
+        <v>0.5329095125198364</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0002847062423825264</v>
+        <v>0.000112921123218257</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4022181034088135</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.4978333711624146</v>
       </c>
       <c r="W102" t="n">
-        <v>0.001142867491580546</v>
+        <v>0.009142279624938965</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3961238861083984</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.5529299378395081</v>
       </c>
       <c r="W103" t="n">
-        <v>0.06886923313140869</v>
+        <v>0.02458813786506653</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3876838684082031</v>
       </c>
       <c r="V104" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.5348234176635742</v>
       </c>
       <c r="W104" t="n">
-        <v>0.1136959940195084</v>
+        <v>0.0216500461101532</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.3888521194458008</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.4671406149864197</v>
       </c>
       <c r="W105" t="n">
-        <v>0.03219213336706161</v>
+        <v>0.006129088345915079</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3881731033325195</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.8969343304634094</v>
       </c>
       <c r="W106" t="n">
-        <v>0.006820505019277334</v>
+        <v>0.2588379979133606</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.4411871433258057</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.5350103378295898</v>
       </c>
       <c r="W107" t="n">
-        <v>0.03398976102471352</v>
+        <v>0.008802792057394981</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3865039348602295</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.4809624552726746</v>
       </c>
       <c r="W108" t="n">
-        <v>0.06720143556594849</v>
+        <v>0.008922412060201168</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3865559101104736</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.9594078660011292</v>
       </c>
       <c r="W109" t="n">
-        <v>0.0550086684525013</v>
+        <v>0.328159362077713</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3853218555450439</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.9431574940681458</v>
       </c>
       <c r="W110" t="n">
-        <v>0.05770654231309891</v>
+        <v>0.311180591583252</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3883469104766846</v>
       </c>
       <c r="V111" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.5524809956550598</v>
       </c>
       <c r="W111" t="n">
-        <v>0.1829570978879929</v>
+        <v>0.02693999744951725</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.392676830291748</v>
       </c>
       <c r="V112" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.9927695989608765</v>
       </c>
       <c r="W112" t="n">
-        <v>0.0001559488446218893</v>
+        <v>0.3601113259792328</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.4127299785614014</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.9921097159385681</v>
       </c>
       <c r="W113" t="n">
-        <v>0.01856120862066746</v>
+        <v>0.3356808722019196</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.390765905380249</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.9047450423240662</v>
       </c>
       <c r="W114" t="n">
-        <v>0.002011962933465838</v>
+        <v>0.2641745507717133</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3889501094818115</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.9618257880210876</v>
       </c>
       <c r="W115" t="n">
-        <v>0.002215646207332611</v>
+        <v>0.3281865417957306</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.388559103012085</v>
       </c>
       <c r="V116" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.4761112332344055</v>
       </c>
       <c r="W116" t="n">
-        <v>4.31138460044167e-06</v>
+        <v>0.007665375713258982</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3897700309753418</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.5485044717788696</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0515766367316246</v>
+        <v>0.025196623057127</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4111719131469727</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.9502227902412415</v>
       </c>
       <c r="W118" t="n">
-        <v>0.02503358572721481</v>
+        <v>0.2905758619308472</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3885760307312012</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.489313006401062</v>
       </c>
       <c r="W119" t="n">
-        <v>0.002250827150419354</v>
+        <v>0.0101479385048151</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4004120826721191</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5329858064651489</v>
       </c>
       <c r="W120" t="n">
-        <v>0.05919249355792999</v>
+        <v>0.01757579296827316</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3879258632659912</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.9462160468101501</v>
       </c>
       <c r="W121" t="n">
-        <v>0.01353977620601654</v>
+        <v>0.3116879165172577</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8671731948852539</v>
       </c>
       <c r="V122" t="n">
-        <v>0.390147477388382</v>
+        <v>0.8801636099815369</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2275535315275192</v>
+        <v>0.0001687508774921298</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9329860210418701</v>
       </c>
       <c r="V123" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.5842829346656799</v>
       </c>
       <c r="W123" t="n">
-        <v>0.01304308231920004</v>
+        <v>0.1215938404202461</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9328370094299316</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.4811771512031555</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2279634922742844</v>
+        <v>0.2039966285228729</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8684320449829102</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.899569571018219</v>
       </c>
       <c r="W125" t="n">
-        <v>0.09974335134029388</v>
+        <v>0.0009695455082692206</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8656630516052246</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.4979515671730042</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1660343408584595</v>
+        <v>0.1352117359638214</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8604040145874023</v>
       </c>
       <c r="V127" t="n">
-        <v>0.480756551027298</v>
+        <v>0.4885504841804504</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1441321969032288</v>
+        <v>0.1382750421762466</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9113059043884277</v>
       </c>
       <c r="V128" t="n">
-        <v>0.471180647611618</v>
+        <v>0.9353160262107849</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1937102377414703</v>
+        <v>0.0005764859379269183</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8533439636230469</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.5351122617721558</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1566453874111176</v>
+        <v>0.1012714132666588</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8740639686584473</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5126466155052185</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1017362847924232</v>
+        <v>0.1306225061416626</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8608500957489014</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.4736174941062927</v>
       </c>
       <c r="W131" t="n">
-        <v>0.143994465470314</v>
+        <v>0.1499490886926651</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9182729721069336</v>
       </c>
       <c r="V132" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5204547047615051</v>
       </c>
       <c r="W132" t="n">
-        <v>0.08642886579036713</v>
+        <v>0.1582593768835068</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8799760341644287</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.4683739542961121</v>
       </c>
       <c r="W133" t="n">
-        <v>0.18049356341362</v>
+        <v>0.1694162786006927</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8519749641418457</v>
       </c>
       <c r="V134" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.5204617977142334</v>
       </c>
       <c r="W134" t="n">
-        <v>0.03797738254070282</v>
+        <v>0.1099009811878204</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8819501399993896</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.9133733510971069</v>
       </c>
       <c r="W135" t="n">
-        <v>0.108426034450531</v>
+        <v>0.0009874182287603617</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9134500026702881</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.9387792348861694</v>
       </c>
       <c r="W136" t="n">
-        <v>0.08632095903158188</v>
+        <v>0.0006415700190700591</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8670570850372314</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.8806440830230713</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1318508684635162</v>
+        <v>0.0001846065133577213</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8597350120544434</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4801634550094604</v>
       </c>
       <c r="W138" t="n">
-        <v>0.0931583046913147</v>
+        <v>0.1440745741128922</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8647799491882324</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.4800534248352051</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1552253067493439</v>
+        <v>0.1480145007371902</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9140892028808594</v>
       </c>
       <c r="V140" t="n">
-        <v>0.474732518196106</v>
+        <v>0.4688027501106262</v>
       </c>
       <c r="W140" t="n">
-        <v>0.193034291267395</v>
+        <v>0.1982800215482712</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8625450134277344</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.5347524881362915</v>
       </c>
       <c r="W141" t="n">
-        <v>0.08691859245300293</v>
+        <v>0.107447937130928</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5616960525512695</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.5851190686225891</v>
       </c>
       <c r="W142" t="n">
-        <v>0.009146645665168762</v>
+        <v>0.000548637704923749</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5180881023406982</v>
       </c>
       <c r="V143" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.4887130856513977</v>
       </c>
       <c r="W143" t="n">
-        <v>0.04857825115323067</v>
+        <v>0.0008628916111774743</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5174250602722168</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.8995621800422668</v>
       </c>
       <c r="W144" t="n">
-        <v>0.002600565319880843</v>
+        <v>0.1460287719964981</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5671308040618896</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.4892286062240601</v>
       </c>
       <c r="W145" t="n">
-        <v>0.008206672035157681</v>
+        <v>0.006068752612918615</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5147268772125244</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.5057533383369446</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0002585210895631462</v>
+        <v>8.052439807215706e-05</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5268139839172363</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.9201018214225769</v>
       </c>
       <c r="W147" t="n">
-        <v>0.01021050382405519</v>
+        <v>0.1546753197908401</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5184540748596191</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.4682625532150269</v>
       </c>
       <c r="W148" t="n">
-        <v>0.003622211050242186</v>
+        <v>0.002519188914448023</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5170118808746338</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.5332231521606445</v>
       </c>
       <c r="W149" t="n">
-        <v>0.02440169639885426</v>
+        <v>0.0002628053189255297</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5172688961029053</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.4817432761192322</v>
       </c>
       <c r="W150" t="n">
-        <v>0.001688494347035885</v>
+        <v>0.001262069679796696</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5147850513458252</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.4931076765060425</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01195856183767319</v>
+        <v>0.0004699085839092731</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5102519989013672</v>
       </c>
       <c r="V152" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.4726036787033081</v>
       </c>
       <c r="W152" t="n">
-        <v>0.04938964918255806</v>
+        <v>0.001417396008037031</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5152320861816406</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.8743724822998047</v>
       </c>
       <c r="W153" t="n">
-        <v>0.0002019372477661818</v>
+        <v>0.1289818286895752</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5149040222167969</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.4746758937835693</v>
       </c>
       <c r="W154" t="n">
-        <v>0.006222028285264969</v>
+        <v>0.001618302310816944</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5177440643310547</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.4678533673286438</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0002556616382207721</v>
+        <v>0.002489081583917141</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5733518600463867</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.4685618877410889</v>
       </c>
       <c r="W156" t="n">
-        <v>0.004934431053698063</v>
+        <v>0.0109809385612607</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.517146110534668</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.5348506569862366</v>
       </c>
       <c r="W157" t="n">
-        <v>0.01985761895775795</v>
+        <v>0.0003134509606752545</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5203139781951904</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.8805269598960876</v>
       </c>
       <c r="W158" t="n">
-        <v>0.002393887145444751</v>
+        <v>0.1297533959150314</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5063948631286621</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.9378250241279602</v>
       </c>
       <c r="W159" t="n">
-        <v>0.004951586946845055</v>
+        <v>0.1861319839954376</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5173289775848389</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.8996453285217285</v>
       </c>
       <c r="W160" t="n">
-        <v>0.003573488211259246</v>
+        <v>0.1461657881736755</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5147650241851807</v>
       </c>
       <c r="V161" t="n">
-        <v>0.56818687915802</v>
+        <v>0.4800961017608643</v>
       </c>
       <c r="W161" t="n">
-        <v>0.002853894606232643</v>
+        <v>0.001201934181153774</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3929789066314697</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.4959869384765625</v>
       </c>
       <c r="W162" t="n">
-        <v>0.01704885065555573</v>
+        <v>0.01061065495014191</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3891658782958984</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.4906617403030396</v>
       </c>
       <c r="W163" t="n">
-        <v>0.01268158573657274</v>
+        <v>0.01030141022056341</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.385962963104248</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.8811200261116028</v>
       </c>
       <c r="W164" t="n">
-        <v>0.003143851645290852</v>
+        <v>0.2451805174350739</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3929691314697266</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.5562054514884949</v>
       </c>
       <c r="W165" t="n">
-        <v>0.006396025884896517</v>
+        <v>0.02664609625935555</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.389599084854126</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.468884289264679</v>
       </c>
       <c r="W166" t="n">
-        <v>0.06938977539539337</v>
+        <v>0.00628614379093051</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3901979923248291</v>
       </c>
       <c r="V167" t="n">
-        <v>0.504918098449707</v>
+        <v>0.4847909212112427</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01316070277243853</v>
+        <v>0.008947822265326977</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4414951801300049</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.877641499042511</v>
       </c>
       <c r="W168" t="n">
-        <v>0.0407659225165844</v>
+        <v>0.1902236044406891</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3884539604187012</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.5522930026054382</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0720290020108223</v>
+        <v>0.02684323117136955</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3920168876647949</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.8656687140464783</v>
       </c>
       <c r="W170" t="n">
-        <v>0.05380740389227867</v>
+        <v>0.2243460565805435</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3896360397338867</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.9024695754051208</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0320802815258503</v>
+        <v>0.2629982233047485</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3904209136962891</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.5062857866287231</v>
       </c>
       <c r="W172" t="n">
-        <v>0.05331169441342354</v>
+        <v>0.01342466846108437</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3872849941253662</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.4922207593917847</v>
       </c>
       <c r="W173" t="n">
-        <v>0.0910625234246254</v>
+        <v>0.0110115148127079</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4283440113067627</v>
       </c>
       <c r="V174" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.4916417002677917</v>
       </c>
       <c r="W174" t="n">
-        <v>0.001462592859752476</v>
+        <v>0.004006597213447094</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3907978534698486</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.497397780418396</v>
       </c>
       <c r="W175" t="n">
-        <v>0.02523550391197205</v>
+        <v>0.01136354450136423</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3927590847015381</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.5010066032409668</v>
       </c>
       <c r="W176" t="n">
-        <v>0.002445327118039131</v>
+        <v>0.01171752531081438</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4013140201568604</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.9283580183982849</v>
       </c>
       <c r="W177" t="n">
-        <v>0.001203904277645051</v>
+        <v>0.277775377035141</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3951339721679688</v>
       </c>
       <c r="V178" t="n">
-        <v>0.43533855676651</v>
+        <v>0.4797853827476501</v>
       </c>
       <c r="W178" t="n">
-        <v>0.001616408582776785</v>
+        <v>0.007165861316025257</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.4187941551208496</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.5247358679771423</v>
       </c>
       <c r="W179" t="n">
-        <v>0.01844190061092377</v>
+        <v>0.01122364681214094</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3924510478973389</v>
       </c>
       <c r="V180" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.5510315895080566</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0001934539905050769</v>
+        <v>0.02514778822660446</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4055678844451904</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.918011486530304</v>
       </c>
       <c r="W181" t="n">
-        <v>0.009692814201116562</v>
+        <v>0.26259845495224</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8647129535675049</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.8752214312553406</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1430801898241043</v>
+        <v>0.0001104281036532484</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9081459045410156</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.4719976782798767</v>
       </c>
       <c r="W183" t="n">
-        <v>0.06992810219526291</v>
+        <v>0.1902252733707428</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8820559978485107</v>
       </c>
       <c r="V184" t="n">
-        <v>0.630542516708374</v>
+        <v>0.5347037315368652</v>
       </c>
       <c r="W184" t="n">
-        <v>0.06325902789831161</v>
+        <v>0.1206535995006561</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.928225040435791</v>
       </c>
       <c r="V185" t="n">
-        <v>0.436027318239212</v>
+        <v>0.4690936207771301</v>
       </c>
       <c r="W185" t="n">
-        <v>0.2422585934400558</v>
+        <v>0.2108016610145569</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8666789531707764</v>
       </c>
       <c r="V186" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.4898407459259033</v>
       </c>
       <c r="W186" t="n">
-        <v>0.002492800122126937</v>
+        <v>0.1420070379972458</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8676369190216064</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.9097820520401001</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1675698161125183</v>
+        <v>0.001776212244294584</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.866962194442749</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5492755174636841</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1994529813528061</v>
+        <v>0.1009248271584511</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9142131805419922</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.9374852776527405</v>
       </c>
       <c r="W189" t="n">
-        <v>0.2005581110715866</v>
+        <v>0.0005415905034169555</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8514430522918701</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.555366039276123</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2233495563268661</v>
+        <v>0.08766159415245056</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8759050369262695</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.8799780607223511</v>
       </c>
       <c r="W191" t="n">
-        <v>0.07562564313411713</v>
+        <v>1.658952351135667e-05</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8611991405487061</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.4798405170440674</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1273639798164368</v>
+        <v>0.1454343944787979</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9125330448150635</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.9207278490066528</v>
       </c>
       <c r="W193" t="n">
-        <v>0.164654478430748</v>
+        <v>6.71548186801374e-05</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8510849475860596</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.477124810218811</v>
       </c>
       <c r="W194" t="n">
-        <v>0.08923591673374176</v>
+        <v>0.1398461908102036</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8673090934753418</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.5332435965538025</v>
       </c>
       <c r="W195" t="n">
-        <v>0.0583028569817543</v>
+        <v>0.1115997582674026</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.857590913772583</v>
       </c>
       <c r="V196" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4763832688331604</v>
       </c>
       <c r="W196" t="n">
-        <v>0.08764384686946869</v>
+        <v>0.1453192681074142</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9213190078735352</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.9091321229934692</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2150013595819473</v>
+        <v>0.0001485201646573842</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8710238933563232</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.4795510172843933</v>
       </c>
       <c r="W198" t="n">
-        <v>0.101950466632843</v>
+        <v>0.1532510071992874</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8738658428192139</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.8963985443115234</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1280173510313034</v>
+        <v>0.0005077226087450981</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8592610359191895</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.4808026552200317</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2303110808134079</v>
+        <v>0.1432307511568069</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9118239879608154</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.5345231294631958</v>
       </c>
       <c r="W201" t="n">
-        <v>0.06418925523757935</v>
+        <v>0.1423559337854385</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5207359790802002</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.4973936676979065</v>
       </c>
       <c r="W202" t="n">
-        <v>0.003014856483787298</v>
+        <v>0.0005448635201901197</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5160939693450928</v>
       </c>
       <c r="V203" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.5350732803344727</v>
       </c>
       <c r="W203" t="n">
-        <v>0.08765757083892822</v>
+        <v>0.0003602142387535423</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5255649089813232</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.481033980846405</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01049605384469032</v>
+        <v>0.00198300345800817</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5180530548095703</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.5506632328033447</v>
       </c>
       <c r="W205" t="n">
-        <v>0.001789697329513729</v>
+        <v>0.001063423696905375</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5711450576782227</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.5070168972015381</v>
       </c>
       <c r="W206" t="n">
-        <v>0.005751705262809992</v>
+        <v>0.004112421069294214</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5177149772644043</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.497809112071991</v>
       </c>
       <c r="W207" t="n">
-        <v>0.001040211645886302</v>
+        <v>0.0003962434711866081</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.516556978225708</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.9350425004959106</v>
       </c>
       <c r="W208" t="n">
-        <v>0.00648527592420578</v>
+        <v>0.1751301288604736</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5095701217651367</v>
       </c>
       <c r="V209" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.5347288846969604</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01708149164915085</v>
+        <v>0.0006329633761197329</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5178558826446533</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.9030556082725525</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01937334612011909</v>
+        <v>0.1483788341283798</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5198121070861816</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.479440450668335</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01982629299163818</v>
+        <v>0.001629870617762208</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5202188491821289</v>
       </c>
       <c r="V212" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5350977778434753</v>
       </c>
       <c r="W212" t="n">
-        <v>0.002221277914941311</v>
+        <v>0.0002213825209764764</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.519014835357666</v>
       </c>
       <c r="V213" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.922340989112854</v>
       </c>
       <c r="W213" t="n">
-        <v>0.04611819982528687</v>
+        <v>0.1626719832420349</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5110161304473877</v>
       </c>
       <c r="V214" t="n">
-        <v>0.551807165145874</v>
+        <v>0.9579355120658875</v>
       </c>
       <c r="W214" t="n">
-        <v>0.001663908478803933</v>
+        <v>0.1997369378805161</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5210390090942383</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.4737586379051208</v>
       </c>
       <c r="W215" t="n">
-        <v>0.003012386150658131</v>
+        <v>0.002235433552414179</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5213079452514648</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5054304003715515</v>
       </c>
       <c r="W216" t="n">
-        <v>0.007344920188188553</v>
+        <v>0.0002520964189898223</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5739490985870361</v>
       </c>
       <c r="V217" t="n">
-        <v>0.816550612449646</v>
+        <v>0.8994399905204773</v>
       </c>
       <c r="W217" t="n">
-        <v>0.05885549634695053</v>
+        <v>0.1059443205595016</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5124390125274658</v>
       </c>
       <c r="V218" t="n">
-        <v>0.57613205909729</v>
+        <v>0.9005503058433533</v>
       </c>
       <c r="W218" t="n">
-        <v>0.004056804347783327</v>
+        <v>0.1506303697824478</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5183022022247314</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.9010661244392395</v>
       </c>
       <c r="W219" t="n">
-        <v>0.002895314013585448</v>
+        <v>0.1465082168579102</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5118379592895508</v>
       </c>
       <c r="V220" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.4876234531402588</v>
       </c>
       <c r="W220" t="n">
-        <v>0.09275661408901215</v>
+        <v>0.0005863422993570566</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5178840160369873</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.4950221180915833</v>
       </c>
       <c r="W221" t="n">
-        <v>0.002229350386187434</v>
+        <v>0.0005226663779467344</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3881731033325195</v>
       </c>
       <c r="V222" t="n">
-        <v>0.476378470659256</v>
+        <v>0.9273667931556702</v>
       </c>
       <c r="W222" t="n">
-        <v>0.007780186831951141</v>
+        <v>0.290729820728302</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3896100521087646</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.551192045211792</v>
       </c>
       <c r="W223" t="n">
-        <v>0.004742027260363102</v>
+        <v>0.02610873989760876</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3896338939666748</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.479921817779541</v>
       </c>
       <c r="W224" t="n">
-        <v>5.341261930880137e-05</v>
+        <v>0.008151909336447716</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3891198635101318</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.4799458980560303</v>
       </c>
       <c r="W225" t="n">
-        <v>0.05311029404401779</v>
+        <v>0.008249368518590927</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3885128498077393</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.5348268151283264</v>
       </c>
       <c r="W226" t="n">
-        <v>0.0560680665075779</v>
+        <v>0.02140777558088303</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3948509693145752</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.9572213292121887</v>
       </c>
       <c r="W227" t="n">
-        <v>0.06196459010243416</v>
+        <v>0.316260427236557</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3942828178405762</v>
       </c>
       <c r="V228" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.942832350730896</v>
       </c>
       <c r="W228" t="n">
-        <v>0.1245409548282623</v>
+        <v>0.3009065985679626</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4447550773620605</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.9100502133369446</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0001628301106393337</v>
+        <v>0.2164995670318604</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3939578533172607</v>
       </c>
       <c r="V230" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4726777076721191</v>
       </c>
       <c r="W230" t="n">
-        <v>0.1785320490598679</v>
+        <v>0.006196815520524979</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.394899845123291</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.5348933935165405</v>
       </c>
       <c r="W231" t="n">
-        <v>0.08402981609106064</v>
+        <v>0.01959819346666336</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3950669765472412</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.4765798449516296</v>
       </c>
       <c r="W232" t="n">
-        <v>0.001700701308436692</v>
+        <v>0.006644347682595253</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4166078567504883</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.9507502913475037</v>
       </c>
       <c r="W233" t="n">
-        <v>0.002258046763017774</v>
+        <v>0.2853081524372101</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3936431407928467</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.4686839580535889</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01168528757989407</v>
+        <v>0.005631124135106802</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4413671493530273</v>
       </c>
       <c r="V235" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.9240375161170959</v>
       </c>
       <c r="W235" t="n">
-        <v>0.03713049739599228</v>
+        <v>0.2329706847667694</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4010059833526611</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.5347971320152283</v>
       </c>
       <c r="W236" t="n">
-        <v>0.001207236316986382</v>
+        <v>0.01790007203817368</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3923790454864502</v>
       </c>
       <c r="V237" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4815368056297302</v>
       </c>
       <c r="W237" t="n">
-        <v>0.1800802201032639</v>
+        <v>0.007949106395244598</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3835799694061279</v>
       </c>
       <c r="V238" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.4820094108581543</v>
       </c>
       <c r="W238" t="n">
-        <v>0.1932070702314377</v>
+        <v>0.009688355028629303</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3897740840911865</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.4765961170196533</v>
       </c>
       <c r="W239" t="n">
-        <v>0.05256209895014763</v>
+        <v>0.007538065314292908</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3865330219268799</v>
       </c>
       <c r="V240" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.5672299265861511</v>
       </c>
       <c r="W240" t="n">
-        <v>0.11467444896698</v>
+        <v>0.03265137225389481</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3851449489593506</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.4642835855484009</v>
       </c>
       <c r="W241" t="n">
-        <v>0.00543033005669713</v>
+        <v>0.006262923590838909</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9108250141143799</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.4813509583473206</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2833347320556641</v>
+        <v>0.1844479590654373</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8838629722595215</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.8957253098487854</v>
       </c>
       <c r="W243" t="n">
-        <v>0.2009197026491165</v>
+        <v>0.0001407150557497516</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8828079700469971</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.4806225895881653</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1884317100048065</v>
+        <v>0.1617530733346939</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8803999423980713</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.4889893531799316</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1419980525970459</v>
+        <v>0.1532022505998611</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8655190467834473</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.4678676724433899</v>
       </c>
       <c r="W246" t="n">
-        <v>0.09241513907909393</v>
+        <v>0.1581266224384308</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8805139064788818</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4802636504173279</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1816858202219009</v>
+        <v>0.1602002680301666</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8545551300048828</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.4736864566802979</v>
       </c>
       <c r="W248" t="n">
-        <v>0.05440640822052956</v>
+        <v>0.1450609415769577</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8742661476135254</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.4978631138801575</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1037859916687012</v>
+        <v>0.1416792422533035</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8637797832489014</v>
       </c>
       <c r="V250" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.505585789680481</v>
       </c>
       <c r="W250" t="n">
-        <v>0.01618041843175888</v>
+        <v>0.1283029317855835</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8871269226074219</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.8610615134239197</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1844708025455475</v>
+        <v>0.000679405580740422</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8672189712524414</v>
       </c>
       <c r="V252" t="n">
-        <v>0.475897878408432</v>
+        <v>0.9158360362052917</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1531322002410889</v>
+        <v>0.002363618928939104</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8709719181060791</v>
       </c>
       <c r="V253" t="n">
-        <v>0.3778295516967773</v>
+        <v>1.004433035850525</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2431893944740295</v>
+        <v>0.01781187020242214</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8685171604156494</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.9635663628578186</v>
       </c>
       <c r="W254" t="n">
-        <v>0.095469631254673</v>
+        <v>0.009034350514411926</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8794350624084473</v>
       </c>
       <c r="V255" t="n">
-        <v>0.435836523771286</v>
+        <v>0.9358657598495483</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1967796683311462</v>
+        <v>0.003184423549100757</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8668630123138428</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.9386071562767029</v>
       </c>
       <c r="W256" t="n">
-        <v>0.09086833894252777</v>
+        <v>0.005147221963852644</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.9045901298522949</v>
       </c>
       <c r="V257" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.4802589416503906</v>
       </c>
       <c r="W257" t="n">
-        <v>0.05972455441951752</v>
+        <v>0.1800569593906403</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.866131067276001</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.9441649317741394</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1852848827838898</v>
+        <v>0.006089284084737301</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8818769454956055</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.5347608923912048</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1792666614055634</v>
+        <v>0.1204895526170731</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8656539916992188</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.8734366893768311</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1845870912075043</v>
+        <v>6.057038262952119e-05</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8851230144500732</v>
       </c>
       <c r="V261" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.4935936331748962</v>
       </c>
       <c r="W261" t="n">
-        <v>0.05134093761444092</v>
+        <v>0.1532952636480331</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5272119045257568</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.480965793132782</v>
       </c>
       <c r="W262" t="n">
-        <v>0.003974799066781998</v>
+        <v>0.00213870289735496</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5252559185028076</v>
       </c>
       <c r="V263" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5051451325416565</v>
       </c>
       <c r="W263" t="n">
-        <v>0.008715011179447174</v>
+        <v>0.0004044437082484365</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5213489532470703</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.480670154094696</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0006321748369373381</v>
+        <v>0.001654764753766358</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5144960880279541</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.5489562749862671</v>
       </c>
       <c r="W265" t="n">
-        <v>0.001944101764820516</v>
+        <v>0.001187504502013326</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5213770866394043</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.9277629256248474</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0009254383621737361</v>
+        <v>0.165149450302124</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5508368015289307</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.4810705184936523</v>
       </c>
       <c r="W267" t="n">
-        <v>0.0006705448031425476</v>
+        <v>0.004867334384471178</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5195109844207764</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.8730717301368713</v>
       </c>
       <c r="W268" t="n">
-        <v>0.002867092378437519</v>
+        <v>0.1250052005052567</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5150058269500732</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.8987120389938354</v>
       </c>
       <c r="W269" t="n">
-        <v>0.001667428528890014</v>
+        <v>0.1472304612398148</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5207350254058838</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.8962486386299133</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0106925442814827</v>
+        <v>0.1410104781389236</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.521867036819458</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5509302616119385</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0003360164992045611</v>
+        <v>0.0008446710417047143</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.6043839454650879</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.921001672744751</v>
       </c>
       <c r="W272" t="n">
-        <v>0.02834485657513142</v>
+        <v>0.100246787071228</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5248839855194092</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.7219809889793396</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0005427896394394338</v>
+        <v>0.03884723037481308</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.544395923614502</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.4679999947547913</v>
       </c>
       <c r="W274" t="n">
-        <v>0.008247776888310909</v>
+        <v>0.005836337804794312</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5220539569854736</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.9336438179016113</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0009917833376675844</v>
+        <v>0.1694062203168869</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5163829326629639</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.4883208274841309</v>
       </c>
       <c r="W276" t="n">
-        <v>0.003741660853847861</v>
+        <v>0.000787481723818928</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5244660377502441</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.4680391550064087</v>
       </c>
       <c r="W277" t="n">
-        <v>0.02580651268362999</v>
+        <v>0.003183993045240641</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5222740173339844</v>
       </c>
       <c r="V278" t="n">
-        <v>0.551414966583252</v>
+        <v>0.4899743795394897</v>
       </c>
       <c r="W278" t="n">
-        <v>0.000849194941110909</v>
+        <v>0.001043266616761684</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5194718837738037</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.4808016419410706</v>
       </c>
       <c r="W279" t="n">
-        <v>0.003217160468921065</v>
+        <v>0.001495387637987733</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5226271152496338</v>
       </c>
       <c r="V280" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.8739672303199768</v>
       </c>
       <c r="W280" t="n">
-        <v>0.04458494856953621</v>
+        <v>0.1234398782253265</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5191450119018555</v>
       </c>
       <c r="V281" t="n">
-        <v>0.56879723072052</v>
+        <v>0.4928902387619019</v>
       </c>
       <c r="W281" t="n">
-        <v>0.002465342869982123</v>
+        <v>0.0006893131067045033</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4037470817565918</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.5329900979995728</v>
       </c>
       <c r="W282" t="n">
-        <v>0.0272291973233223</v>
+        <v>0.01670375652611256</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3965978622436523</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.9111613631248474</v>
       </c>
       <c r="W283" t="n">
-        <v>0.05035976693034172</v>
+        <v>0.2647756040096283</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3935379981994629</v>
       </c>
       <c r="V284" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.5127421617507935</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1803141236305237</v>
+        <v>0.01420963276177645</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3990819454193115</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.47953861951828</v>
       </c>
       <c r="W285" t="n">
-        <v>0.05136071145534515</v>
+        <v>0.006473276298493147</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3928329944610596</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.4686071276664734</v>
       </c>
       <c r="W286" t="n">
-        <v>0.003968454897403717</v>
+        <v>0.005741719156503677</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3912510871887207</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.488761842250824</v>
       </c>
       <c r="W287" t="n">
-        <v>0.002010372467339039</v>
+        <v>0.009508347138762474</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.404757022857666</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.8802062273025513</v>
       </c>
       <c r="W288" t="n">
-        <v>0.02206645719707012</v>
+        <v>0.2260519415140152</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4088938236236572</v>
       </c>
       <c r="V289" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.5061271190643311</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1661332249641418</v>
+        <v>0.009454313665628433</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3934800624847412</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.8974778056144714</v>
       </c>
       <c r="W290" t="n">
-        <v>0.004131800029426813</v>
+        <v>0.25401371717453</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3988280296325684</v>
       </c>
       <c r="V291" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.8832584023475647</v>
       </c>
       <c r="W291" t="n">
-        <v>0.1800687909126282</v>
+        <v>0.2346727848052979</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.415463924407959</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.5126436352729797</v>
       </c>
       <c r="W292" t="n">
-        <v>0.06022423878312111</v>
+        <v>0.009443895891308784</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.396190881729126</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.9981675148010254</v>
       </c>
       <c r="W293" t="n">
-        <v>0.04345665499567986</v>
+        <v>0.3623758554458618</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3955419063568115</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.5006227493286133</v>
       </c>
       <c r="W294" t="n">
-        <v>0.001638617366552353</v>
+        <v>0.01104198396205902</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3936030864715576</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.4797449111938477</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01039161253720522</v>
+        <v>0.007420414127409458</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4444561004638672</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.5351982712745667</v>
       </c>
       <c r="W296" t="n">
-        <v>0.01628147438168526</v>
+        <v>0.008234141394495964</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3945729732513428</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.9015578031539917</v>
       </c>
       <c r="W297" t="n">
-        <v>0.05279072001576424</v>
+        <v>0.2570336163043976</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3963210582733154</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.5048636198043823</v>
       </c>
       <c r="W298" t="n">
-        <v>0.005535853561013937</v>
+        <v>0.0117814876139164</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3969969749450684</v>
       </c>
       <c r="V299" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4848686456680298</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0515500009059906</v>
+        <v>0.007721430622041225</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3968369960784912</v>
       </c>
       <c r="V300" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.9011811017990112</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0226729866117239</v>
+        <v>0.2543629705905914</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4005329608917236</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.4946348071098328</v>
       </c>
       <c r="W301" t="n">
-        <v>0.005624417215585709</v>
+        <v>0.008855157531797886</v>
       </c>
     </row>
     <row r="302" spans="1:23">
